--- a/ScenarioData.xlsx
+++ b/ScenarioData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PCF" sheetId="2" r:id="rId1"/>
     <sheet name="PCF Extended" sheetId="3" r:id="rId2"/>
+    <sheet name="Youth Policy Design" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="278">
   <si>
     <t>Policy</t>
   </si>
@@ -86,9 +87,6 @@
   </si>
   <si>
     <t>Fraction of Hard Coal Use Converted to Other Fuels = 0.5</t>
-  </si>
-  <si>
-    <t>Indst convert coal use: Phase in linearly from 2020-2030, hit 1 (0.5) in 2030</t>
   </si>
   <si>
     <t xml:space="preserve">It is currently unclear to what extent the CFS is incremental to other PCF policies. We have assumed that it is incremental to carbon pricing, coal phase out, methane reductions, and buildings efficiency requirements, so the 30MT implemented here are additional to the reductions achieved in 2030 from these other 4 policies. This is not a guarantee, as it is not yet clear whether the CFS is incremental to carbon pricing in the PCF. </t>
@@ -301,12 +299,6 @@
     <t>Additional sources</t>
   </si>
   <si>
-    <t>Phase out of coal is 400MW/year from 2018-2030 (default implementation schedule is 1 all the way across). All coal is phased out by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These plants retire after 15 years (2045) – this not included in the model yet; check with Ben how coal to gas conversion is included here, check when all coal is gone </t>
-  </si>
-  <si>
     <t>Fraction of Hard Coal Use Converted to Other Fuels = 0.9</t>
   </si>
   <si>
@@ -365,9 +357,6 @@
     <t>Additional Minimum Required EV Sales Percentage[passenger,LDVs] = 0.761</t>
   </si>
   <si>
-    <t>30% of sales by 2030, so 76.1% by 2050</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trans EV minimum: Phase in linearly from 2018-2050, hit (0.3) in 2030 and 1 (0.761) in 2050 </t>
   </si>
   <si>
@@ -381,9 +370,6 @@
   </si>
   <si>
     <t>Fraction of Methane Capture Opportunities Achieved = 1</t>
-  </si>
-  <si>
-    <t>Potential reduction possible is assumed (in input data) to be 50% in 2020, 75% in 2030 and 90% in 2050</t>
   </si>
   <si>
     <t>85% of potential in 2036 is 100% of potential in 2039</t>
@@ -482,9 +468,6 @@
     <t>Fraction of F Gasses Avoided = 1</t>
   </si>
   <si>
-    <t>30% of LDV sales by 2030</t>
-  </si>
-  <si>
     <t>https://www.iea.org/media/topics/transport/3030CampaignDocumentFinal.pdf</t>
   </si>
   <si>
@@ -524,40 +507,16 @@
     <t>Carbon Tax[industry sector] = 243</t>
   </si>
   <si>
-    <t xml:space="preserve">We are still likely underestimating methane emissions from oil here - methodology could be adjusted later on to account for this. The methane capture policy lever affects oil and gas operations, methane destruction lever only affects waste and coal methane emissions. Also, the 40-45% target is a reduction from 2012 levels, but we have approximated using 2017 levels since that is the first year of data in our model. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are 76 MT of methane emissions from oil and gas industry in 2017 in BAU, so a 40-45% reduction is 42-46MT in 2025. Potential reduction possible is assumed (in input data) to be 50% in 2020, 75% in 2030 and 90% in 2050. </t>
-  </si>
-  <si>
     <t>Reduce industry methane emissions by 40-45% from 2012 levels in 2025</t>
   </si>
   <si>
     <t>Fraction of Addressable Process Emissions Avoided via Worker Training = 1</t>
   </si>
   <si>
-    <t>Fraction of Methane Capture Opportunities Achieved = 0.85</t>
-  </si>
-  <si>
-    <t>Fraction of Addressable Process Emissions Avoided via Worker Training = 0.85</t>
-  </si>
-  <si>
-    <t>Used 85% of potential reductions from capture and 85% of potential reduction from worker training in 2025 = 43% reduction in 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indst methane capture: Phase in linearly from 2018-2025, hit 1 (85%) in 2025 and stay constant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indst worker training: Phase in linearly from 2018-2025, hit 1 (85%) in 2025 and stay constant </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indst methane capture: Phase in linearly from 2018-2029, hit (80%) in 2025 and 1 (100%) in 2027, then stay constant </t>
   </si>
   <si>
     <t xml:space="preserve">Indst worker training: Phase in linearly from 2018-2027, hit (80%) in 2025 and 1 (100%) in 2027, then stay constant </t>
-  </si>
-  <si>
-    <t>85% of potential in 2025 is 100% of potential in 2027</t>
   </si>
   <si>
     <t>Our assumptions about where 30MT will come from - in total our CFS policies for transport, buildings and industry adds up to 29MT in 2030</t>
@@ -587,12 +546,325 @@
   <si>
     <t>Cross carbon tax: Phase in linearly from $20 in 2019 to 2050, hit ($48) in 2022 and 1 ($243) in 2050</t>
   </si>
+  <si>
+    <t>Limit on oilsands emissions (100 Mt)</t>
+  </si>
+  <si>
+    <t>Fraction of Installation and System Integration Issues Remedied = 1</t>
+  </si>
+  <si>
+    <t>The oilsands limit is modelled as a lever that can be activated to provide an estimate of emissions reductions provided by the policy. It assumes the 100 Mt limit is reached (as per a 2018 Pembina analysis) and a constant emissions intensity of oilsands production throughout the simulation.</t>
+  </si>
+  <si>
+    <t>The policy lever uses an ad-hoc implementation schedule.</t>
+  </si>
+  <si>
+    <t>Analysis by Pembina shows limit reached in 2025 https://www.ceaa-acee.gc.ca/050/documents/p65505/125100E.pdf#page=139</t>
+  </si>
+  <si>
+    <t>30% of LDV and HDV sales by 2030</t>
+  </si>
+  <si>
+    <t>30% of LDV and HDV sales by 2030, so 76.1% by 2050</t>
+  </si>
+  <si>
+    <t>Fraction of Methane Capture Opportunities Achieved = 0.565</t>
+  </si>
+  <si>
+    <t>Fraction of Addressable Process Emissions Avoided via Worker Training = 0.1</t>
+  </si>
+  <si>
+    <t>Used 56.5% of potential reductions from capture and 10% of potential reduction from worker training in 2025 = 42.5% reduction in 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst methane capture: Phase in linearly from 2018-2025, hit 1 (56.5%) in 2025 and stay constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst worker training: Phase in linearly from 2018-2025, hit 1 (10%) in 2025 and stay constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 53 MT of methane emissions from oil and gas industry in 2017 in BAU, so a 40-45% reduction from 2012 levels is 29-32MT in 2025. Maximum potential reduction possible is assumed (in input data) to be 50% in 2020, 75% in 2030 and 90% in 2050. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane emissions align with data released by Government sources. The methane capture policy lever affects oil and gas operations, methane destruction lever only affects waste and coal methane emissions. </t>
+  </si>
+  <si>
+    <t>80% of potential in 2025 is 100% of potential in 2027</t>
+  </si>
+  <si>
+    <t>Potential reduction possible is assumed (in input data) to be 50% of all methane emissions (from oil and gas industry) in 2020, 75% in 2030 and 90% in 2050</t>
+  </si>
+  <si>
+    <t>These plants retire after 15 years (2045) – this not included in the model yet</t>
+  </si>
+  <si>
+    <t>Tell the model to pull from PMCCS instead of BPMCCS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of coal is switched to NG and biomas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% of NG is switched to electricity. </t>
+  </si>
+  <si>
+    <t>Indst convert coal use: Phase in linearly from 2020-2030, hit 1 (0.5) in 2030 and stay constant</t>
+  </si>
+  <si>
+    <t>Fuel switching in industry</t>
+  </si>
+  <si>
+    <t>Low Carbon Fuel Standard in transport</t>
+  </si>
+  <si>
+    <t>15% LCFS (on top of BAU 2%=13% additional) in 2030</t>
+  </si>
+  <si>
+    <t>Percent New Nonelec Component Sales Shifted to Elec[urban residential] = 0.44</t>
+  </si>
+  <si>
+    <t>Percent New Nonelec Component Sales Shifted to Elec[rural residential] = 0.44</t>
+  </si>
+  <si>
+    <t>Percent New Nonelec Component Sales Shifted to Elec[commercial] = 0.44</t>
+  </si>
+  <si>
+    <t>Bldgs component electrification: Phase in linearly from 2020 to 2030, hit 1(0.44) in 2030 and stay constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume 44% of new building component sales switch to electric in 2030 </t>
+  </si>
+  <si>
+    <t>Additional Minimum Required EV Sales Percentage[passenger,LDVs] = 1</t>
+  </si>
+  <si>
+    <t>Additional Minimum Required EV Sales Percentage[passenger,HDVs] = 0.9</t>
+  </si>
+  <si>
+    <t>Additional Minimum Required EV Sales Percentage[freight,LDVs] = 1</t>
+  </si>
+  <si>
+    <t>Additional Minimum Required EV Sales Percentage[freight,HDVs] = 0.9</t>
+  </si>
+  <si>
+    <t>100% of LDV and 90% of HDV sales by 2040</t>
+  </si>
+  <si>
+    <t>Trans EV minimum: Phase in to hit 0.3 (30% of LDV and 27% of HDV sales) in 2030 and hit 1 (100% of LDV and 90% of HDV sales) in 2040, then stay constant</t>
+  </si>
+  <si>
+    <t>Carbon Tax[transportation sector] = 330</t>
+  </si>
+  <si>
+    <t>Carbon Tax[electricity sector] = 330</t>
+  </si>
+  <si>
+    <t>Carbon Tax[residential buildings sector] = 330</t>
+  </si>
+  <si>
+    <t>Carbon Tax[commercial buildings sector] = 330</t>
+  </si>
+  <si>
+    <t>Carbon Tax[industry sector] = 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20$ carbon tax across all sectors by 2019, 50$ by 2022, and 330$ by 2050. These values are adjusted with inflation in the EPS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross carbon tax: Phase in linearly from $20 in 2019 to $50 in 2022 to $330 in 2050. </t>
+  </si>
+  <si>
+    <t>Reduce industry methane emissions</t>
+  </si>
+  <si>
+    <t>Fraction of Methane Capture Opportunities Achieved = 0.85</t>
+  </si>
+  <si>
+    <t>Fraction of Addressable Process Emissions Avoided via Worker Training = 0.85</t>
+  </si>
+  <si>
+    <t>85% of potential methane emissions reductions from upstream oil and gas production are achieved through methane capture and worker training by 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst methane capture: Phase in linearly from 2018-2025, hit 1 (85%) in 2025 and stay constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst worker training: Phase in linearly from 2018-2025, hit 1 (85%) in 2025 and stay constant </t>
+  </si>
+  <si>
+    <t>Used 85% of potential reductions = 85% reduction of F-gases in 2036</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[heating,urban residential] = 0.8</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[heating,rural residential] = 0.8</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[heating,commercial] = 0.75</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[cooling and ventilation,urban residential] = 0.8</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[cooling and ventilation,rural residential] = 0.8</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[cooling and ventilation,commercial] = 0.75</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[lighting,urban residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[lighting,rural residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[lighting,commercial] = 0.85</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[appliances,urban residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[appliances,rural residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[appliances,commercial] = 0.85</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[other component,urban residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[other component,rural residential] = 0.9</t>
+  </si>
+  <si>
+    <t>Reduction in E Use Allowed by Component Eff Std[other component,commercial] = 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bldgs efficiency standards: Phase in linearly from 2022-2035, hit 1 (0.9, 0.8, 0.75 or 0.85) in 2030 and stay constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net zero energy ready buildings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80% reduction in energy use from residential heating and cooling, and 90% reduction in energy use from residential lighting and appliances by 2035. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75% reduction in energy use from commerical heating and cooling, and 85% reduction in energy use from commerical lighting and appliances by 2035. </t>
+  </si>
+  <si>
+    <t>Policy Recommendation</t>
+  </si>
+  <si>
+    <t>LDVs Feebate Rate = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase in linearly from 2020-2025, hit 1 (100%) in 2025 and stay constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global best practice feebate rate for buyers of efficient LDVs implemented by 2025 </t>
+  </si>
+  <si>
+    <t>Fraction of Abatement from Cropland Management Achieved = 1</t>
+  </si>
+  <si>
+    <t>Fraction of Abatement from Livestock Measures Achieved = 1</t>
+  </si>
+  <si>
+    <t>100% of potential abatement from cropland management and livestock measures achieved by 2050</t>
+  </si>
+  <si>
+    <t>Fraction of Afforestation and Reforestation Achieved = 0.25</t>
+  </si>
+  <si>
+    <t>Fraction of Avoided Deforestation Achieved = 1</t>
+  </si>
+  <si>
+    <t>Fraction of Improved Forest Management Achieved = 1</t>
+  </si>
+  <si>
+    <t>25% of potential reforestation and 100% of potential avoided deforestation and forest management improvement achieved by 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of 'Youth Policy Design Winner' Policy Package: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst cropland management: Default (phase in linearly from 2019 to 2050) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indst livestock measures: Default (phase in linearly from 2019 to 2050) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land afforestation and reforestation:  Default (phase in linearly from 2019 to 2050) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land avoid deforestation:  Default (phase in linearly from 2019 to 2050) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land forest management:  Default (phase in linearly from 2019 to 2050) </t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[heating] = 0.5</t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[cooling and ventilation] = 0.5</t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[envelope] = 0.5</t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[lighting] = 0.5</t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[appliances] = 0.5</t>
+  </si>
+  <si>
+    <t>Fraction of Commercial Components Replaced Annually due to Retrofitting Policy[other component] = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrofitting of existing commercial buildings </t>
+  </si>
+  <si>
+    <t>0.5% of commerical building components are retrofit each year starting in 2018</t>
+  </si>
+  <si>
+    <t>Bldgs retrofitting: Default (1 from 2018-2050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon levy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrification of new building components </t>
+  </si>
+  <si>
+    <t>EV sales mandate &amp; feebate</t>
+  </si>
+  <si>
+    <t>Food education</t>
+  </si>
+  <si>
+    <t>Reduce HFC consumption</t>
+  </si>
+  <si>
+    <t>Fossil fuel subsidy phase out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforestation, deforestation, and forest management </t>
+  </si>
+  <si>
+    <t>Investment in public transit</t>
+  </si>
+  <si>
+    <t>Coal phase out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner of the Pembina Institute's 2019 Youth Energy Policy Design Competition </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,60 +874,71 @@
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3366FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,9 +946,36 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +1000,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -707,7 +1035,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -716,8 +1044,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -734,12 +1066,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -748,9 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -782,33 +1105,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -818,26 +1115,251 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -846,6 +1368,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1173,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1288,105 +1813,105 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:26" s="19" customFormat="1" ht="28">
+      <c r="A4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" ht="134" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" s="19" customFormat="1" ht="134" customHeight="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>185</v>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>184</v>
+      <c r="E5" s="20" t="s">
+        <v>170</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>183</v>
+      <c r="F5" s="20" t="s">
+        <v>169</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="140">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="81" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>181</v>
+      <c r="C6" s="78" t="s">
+        <v>167</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1409,13 +1934,13 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="42">
-      <c r="A7" s="25"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1440,69 +1965,69 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" ht="42">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:26" s="19" customFormat="1" ht="42">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" ht="42">
+      <c r="A9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" ht="42">
-      <c r="A9" s="29" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1525,12 +2050,12 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="14">
-      <c r="A10" s="25"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1555,12 +2080,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="14">
-      <c r="A11" s="25"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1584,152 +2109,152 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="22" customFormat="1" ht="36">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:26" s="19" customFormat="1" ht="36">
+      <c r="A12" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="F12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:26" s="19" customFormat="1" ht="28">
+      <c r="A13" s="76"/>
+      <c r="B13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>1</v>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>148</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="1:26" s="19" customFormat="1" ht="14">
+      <c r="A14" s="76"/>
+      <c r="B14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" spans="1:26" s="19" customFormat="1" ht="14">
+      <c r="A15" s="76"/>
+      <c r="B15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="1:26" ht="14">
+      <c r="A16" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-    </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-    </row>
-    <row r="16" spans="1:26" ht="14">
-      <c r="A16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>186</v>
+      <c r="D16" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
@@ -1757,12 +2282,12 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="14">
-      <c r="A17" s="27"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1787,12 +2312,12 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="14">
-      <c r="A18" s="27"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1817,12 +2342,12 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="14">
-      <c r="A19" s="27"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1847,12 +2372,12 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="14">
-      <c r="A20" s="27"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1876,173 +2401,173 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>169</v>
+    <row r="21" spans="1:26" s="19" customFormat="1" ht="14" customHeight="1">
+      <c r="A21" s="72" t="s">
+        <v>161</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>171</v>
+      <c r="B21" s="84" t="s">
+        <v>181</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>173</v>
+      <c r="C21" s="71" t="s">
+        <v>183</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" spans="1:26" s="17" customFormat="1" ht="133" customHeight="1">
+      <c r="A22" s="72"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+    </row>
+    <row r="23" spans="1:26" s="17" customFormat="1" ht="63" customHeight="1">
+      <c r="A23" s="72"/>
+      <c r="B23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="1:26" s="31" customFormat="1" ht="84">
+      <c r="A24" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>168</v>
+      <c r="B24" s="27" t="s">
+        <v>175</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="C24" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>167</v>
+      <c r="G24" s="26"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+    </row>
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="154">
+      <c r="A25" s="23" t="s">
+        <v>44</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-    </row>
-    <row r="22" spans="1:26" s="20" customFormat="1" ht="133" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" s="20" customFormat="1" ht="63" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="15" t="s">
-        <v>172</v>
+      <c r="B25" s="32" t="s">
+        <v>146</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="154">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="42">
-      <c r="A25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>54</v>
+      <c r="G25" s="34" t="s">
+        <v>4</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -2062,182 +2587,184 @@
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
     </row>
-    <row r="26" spans="1:26" ht="14">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:26" s="38" customFormat="1" ht="42">
+      <c r="A26" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A27" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C27" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D27" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A28" s="76"/>
+      <c r="B28" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="14">
-      <c r="A27" s="25"/>
-      <c r="B27" s="4" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+    </row>
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A29" s="76"/>
+      <c r="B29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="14">
-      <c r="A28" s="25"/>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+    </row>
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A30" s="76"/>
+      <c r="B30" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="14">
-      <c r="A29" s="25"/>
-      <c r="B29" s="4" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A31" s="76"/>
+      <c r="B31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="14">
-      <c r="A30" s="25"/>
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="70">
-      <c r="A31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>2</v>
-      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -2258,609 +2785,619 @@
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:26" s="38" customFormat="1" ht="70">
+      <c r="A32" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+    </row>
+    <row r="33" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A33" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C33" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="D33" s="74"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+    </row>
+    <row r="34" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A34" s="74"/>
+      <c r="B34" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-    </row>
-    <row r="33" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+    </row>
+    <row r="35" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A35" s="74"/>
+      <c r="B35" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-    </row>
-    <row r="34" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+    </row>
+    <row r="36" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A36" s="74"/>
+      <c r="B36" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+    </row>
+    <row r="37" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A37" s="74"/>
+      <c r="B37" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+    </row>
+    <row r="38" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A38" s="74"/>
+      <c r="B38" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-    </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+    </row>
+    <row r="39" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A39" s="74"/>
+      <c r="B39" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-    </row>
-    <row r="38" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+    </row>
+    <row r="40" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A40" s="74"/>
+      <c r="B40" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-    </row>
-    <row r="39" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A39" s="33"/>
-      <c r="B39" s="35" t="s">
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+    </row>
+    <row r="41" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A41" s="74"/>
+      <c r="B41" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A40" s="33"/>
-      <c r="B40" s="35" t="s">
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+    </row>
+    <row r="42" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A42" s="74"/>
+      <c r="B42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-    </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A41" s="33"/>
-      <c r="B41" s="35" t="s">
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+    </row>
+    <row r="43" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A43" s="74"/>
+      <c r="B43" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-    </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35" t="s">
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+    </row>
+    <row r="44" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A44" s="74"/>
+      <c r="B44" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-    </row>
-    <row r="43" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A43" s="33"/>
-      <c r="B43" s="35" t="s">
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+    </row>
+    <row r="45" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A45" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-    </row>
-    <row r="44" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A44" s="34" t="s">
+      <c r="B45" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="C45" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="D45" s="74"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+    </row>
+    <row r="46" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A46" s="74"/>
+      <c r="B46" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-    </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A45" s="33"/>
-      <c r="B45" s="35" t="s">
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+    </row>
+    <row r="47" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A47" s="74"/>
+      <c r="B47" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-    </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A46" s="33"/>
-      <c r="B46" s="35" t="s">
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+    </row>
+    <row r="48" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A48" s="74"/>
+      <c r="B48" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-    </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A47" s="33"/>
-      <c r="B47" s="35" t="s">
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+    </row>
+    <row r="49" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A49" s="74"/>
+      <c r="B49" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-    </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35" t="s">
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
+    </row>
+    <row r="50" spans="1:26" s="38" customFormat="1" ht="32" customHeight="1">
+      <c r="A50" s="74"/>
+      <c r="B50" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-    </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="32" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-    </row>
-    <row r="50" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-    </row>
-    <row r="51" spans="1:26" ht="14">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+    </row>
+    <row r="51" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="14">
       <c r="A52" s="3"/>
@@ -29434,26 +29971,36 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001" spans="1:26" ht="14">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D31:D49"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="D9:D11"/>
@@ -29463,11 +30010,29 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D32:D50"/>
+    <mergeCell ref="D27:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1"/>
-    <hyperlink ref="G24" r:id="rId2"/>
-    <hyperlink ref="H24" r:id="rId3"/>
+    <hyperlink ref="G25" r:id="rId2"/>
+    <hyperlink ref="H25" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -29481,16 +30046,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
@@ -29500,10 +30065,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -29566,19 +30131,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -29600,108 +30165,108 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="22" customFormat="1" ht="42">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:26" s="19" customFormat="1" ht="28">
+      <c r="A4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" s="19" customFormat="1" ht="168">
+      <c r="A5" s="76"/>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" ht="90" customHeight="1">
+      <c r="A6" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" ht="168">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-    </row>
-    <row r="6" spans="1:26" ht="84">
-      <c r="A6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -29723,15 +30288,15 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="56">
-      <c r="A7" s="25"/>
-      <c r="B7" s="8" t="s">
-        <v>101</v>
+      <c r="A7" s="79"/>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>102</v>
+      <c r="C7" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -29756,67 +30321,67 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" ht="42">
-      <c r="A8" s="23" t="s">
-        <v>26</v>
+    <row r="8" spans="1:26" s="19" customFormat="1" ht="42">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" ht="28">
+      <c r="A9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D9" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" ht="28">
-      <c r="A9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -29839,12 +30404,12 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="14">
-      <c r="A10" s="25"/>
-      <c r="B10" s="8" t="s">
-        <v>111</v>
+      <c r="A10" s="79"/>
+      <c r="B10" s="6" t="s">
+        <v>108</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -29869,12 +30434,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="14">
-      <c r="A11" s="25"/>
-      <c r="B11" s="8" t="s">
-        <v>112</v>
+      <c r="A11" s="79"/>
+      <c r="B11" s="6" t="s">
+        <v>109</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -29898,459 +30463,459 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="22" customFormat="1" ht="56">
-      <c r="A12" s="34" t="s">
-        <v>36</v>
+    <row r="12" spans="1:26" s="19" customFormat="1" ht="56">
+      <c r="A12" s="80" t="s">
+        <v>35</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:26" s="19" customFormat="1" ht="28">
+      <c r="A13" s="76"/>
+      <c r="B13" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="1:26" s="19" customFormat="1" ht="14">
+      <c r="A14" s="76"/>
+      <c r="B14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" spans="1:26" s="19" customFormat="1" ht="14">
+      <c r="A15" s="76"/>
+      <c r="B15" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A16" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A17" s="83"/>
+      <c r="B17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A18" s="83"/>
+      <c r="B18" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A19" s="83"/>
+      <c r="B19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A20" s="83"/>
+      <c r="B20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="21" spans="1:26" s="19" customFormat="1" ht="40" customHeight="1">
+      <c r="A21" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="C21" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>3</v>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="1:26" s="17" customFormat="1" ht="52" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="12" t="s">
+        <v>162</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A13" s="33"/>
-      <c r="B13" s="21" t="s">
+      <c r="C23" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="1:26" s="31" customFormat="1" ht="56">
+      <c r="A24" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+    </row>
+    <row r="25" spans="1:26" s="21" customFormat="1" ht="70">
+      <c r="A25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-    </row>
-    <row r="14" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="21" t="s">
+      <c r="D25" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A15" s="33"/>
-      <c r="B15" s="21" t="s">
+      <c r="E25" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-    </row>
-    <row r="16" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A17" s="27"/>
-      <c r="B17" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A18" s="27"/>
-      <c r="B18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A19" s="27"/>
-      <c r="B19" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A20" s="27"/>
-      <c r="B20" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="40" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-    </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-    </row>
-    <row r="23" spans="1:26" s="20" customFormat="1" ht="52" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="70">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="42">
-      <c r="A25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="23"/>
       <c r="F25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>54</v>
+      <c r="G25" s="34" t="s">
+        <v>4</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -30372,182 +30937,184 @@
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
     </row>
-    <row r="26" spans="1:26" ht="14">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:26" s="38" customFormat="1" ht="42">
+      <c r="A26" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A27" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C27" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D27" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A28" s="76"/>
+      <c r="B28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="14">
-      <c r="A27" s="25"/>
-      <c r="B27" s="8" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+    </row>
+    <row r="29" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A29" s="76"/>
+      <c r="B29" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="14">
-      <c r="A28" s="25"/>
-      <c r="B28" s="8" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+    </row>
+    <row r="30" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A30" s="76"/>
+      <c r="B30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="14">
-      <c r="A29" s="25"/>
-      <c r="B29" s="8" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+    </row>
+    <row r="31" spans="1:26" s="21" customFormat="1" ht="14">
+      <c r="A31" s="76"/>
+      <c r="B31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="14">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="126">
-      <c r="A31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>2</v>
-      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -30568,669 +31135,679 @@
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="126">
-      <c r="A32" s="34" t="s">
-        <v>66</v>
+    <row r="32" spans="1:26" s="38" customFormat="1" ht="129" customHeight="1">
+      <c r="A32" s="44" t="s">
+        <v>62</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+    </row>
+    <row r="33" spans="1:26" s="38" customFormat="1" ht="126">
+      <c r="A33" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+    </row>
+    <row r="34" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A34" s="74"/>
+      <c r="B34" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+    </row>
+    <row r="35" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A35" s="74"/>
+      <c r="B35" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+    </row>
+    <row r="36" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A36" s="74"/>
+      <c r="B36" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+    </row>
+    <row r="37" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A37" s="74"/>
+      <c r="B37" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+    </row>
+    <row r="38" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A38" s="74"/>
+      <c r="B38" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-    </row>
-    <row r="33" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A33" s="33"/>
-      <c r="B33" s="21" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+    </row>
+    <row r="39" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A39" s="74"/>
+      <c r="B39" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-    </row>
-    <row r="34" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A34" s="33"/>
-      <c r="B34" s="21" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+    </row>
+    <row r="40" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A40" s="74"/>
+      <c r="B40" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-    </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A35" s="33"/>
-      <c r="B35" s="21" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+    </row>
+    <row r="41" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A41" s="74"/>
+      <c r="B41" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A36" s="33"/>
-      <c r="B36" s="21" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+    </row>
+    <row r="42" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A42" s="74"/>
+      <c r="B42" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-    </row>
-    <row r="37" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A37" s="33"/>
-      <c r="B37" s="21" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+    </row>
+    <row r="43" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A43" s="74"/>
+      <c r="B43" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-    </row>
-    <row r="38" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A38" s="33"/>
-      <c r="B38" s="21" t="s">
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+    </row>
+    <row r="44" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A44" s="74"/>
+      <c r="B44" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-    </row>
-    <row r="39" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A39" s="33"/>
-      <c r="B39" s="21" t="s">
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+    </row>
+    <row r="45" spans="1:26" s="38" customFormat="1" ht="112">
+      <c r="A45" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A40" s="33"/>
-      <c r="B40" s="21" t="s">
+      <c r="C45" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-    </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A41" s="33"/>
-      <c r="B41" s="21" t="s">
+      <c r="D45" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-    </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A42" s="33"/>
-      <c r="B42" s="21" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+    </row>
+    <row r="46" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A46" s="74"/>
+      <c r="B46" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-    </row>
-    <row r="43" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A43" s="33"/>
-      <c r="B43" s="21" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+    </row>
+    <row r="47" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A47" s="74"/>
+      <c r="B47" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-    </row>
-    <row r="44" spans="1:26" s="22" customFormat="1" ht="112">
-      <c r="A44" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="21" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+    </row>
+    <row r="48" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A48" s="74"/>
+      <c r="B48" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+    </row>
+    <row r="49" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A49" s="74"/>
+      <c r="B49" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+    </row>
+    <row r="50" spans="1:26" s="38" customFormat="1" ht="14">
+      <c r="A50" s="74"/>
+      <c r="B50" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-    </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A45" s="33"/>
-      <c r="B45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-    </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A46" s="33"/>
-      <c r="B46" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-    </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A47" s="33"/>
-      <c r="B47" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-    </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="14">
-      <c r="A48" s="33"/>
-      <c r="B48" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-    </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="28">
-      <c r="A49" s="33"/>
-      <c r="B49" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-    </row>
-    <row r="50" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-    </row>
-    <row r="51" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-    </row>
-    <row r="52" spans="1:26" s="13" customFormat="1" ht="14">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-    </row>
-    <row r="53" spans="1:26" ht="14">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+    </row>
+    <row r="51" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="1:26" s="10" customFormat="1" ht="14">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="1:26" ht="14">
       <c r="A54" s="3"/>
@@ -57804,36 +58381,1676 @@
       <c r="Y1002" s="3"/>
       <c r="Z1002" s="3"/>
     </row>
+    <row r="1003" spans="1:26" ht="14">
+      <c r="A1003" s="3"/>
+      <c r="B1003" s="3"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="3"/>
+      <c r="G1003" s="3"/>
+      <c r="H1003" s="3"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="3"/>
+      <c r="M1003" s="3"/>
+      <c r="N1003" s="3"/>
+      <c r="O1003" s="3"/>
+      <c r="P1003" s="3"/>
+      <c r="Q1003" s="3"/>
+      <c r="R1003" s="3"/>
+      <c r="S1003" s="3"/>
+      <c r="T1003" s="3"/>
+      <c r="U1003" s="3"/>
+      <c r="V1003" s="3"/>
+      <c r="W1003" s="3"/>
+      <c r="X1003" s="3"/>
+      <c r="Y1003" s="3"/>
+      <c r="Z1003" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1"/>
-    <hyperlink ref="G24" r:id="rId2"/>
+    <hyperlink ref="G25" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="35" style="49" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="49" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="56" customFormat="1" ht="28">
+      <c r="A1" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+    </row>
+    <row r="2" spans="1:23" s="56" customFormat="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+    </row>
+    <row r="3" spans="1:23" s="56" customFormat="1">
+      <c r="A3" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+    </row>
+    <row r="4" spans="1:23" s="48" customFormat="1" ht="28">
+      <c r="A4" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" s="48" customFormat="1" ht="28">
+      <c r="A5" s="95"/>
+      <c r="B5" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" s="56" customFormat="1" ht="90" customHeight="1">
+      <c r="A6" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+    </row>
+    <row r="7" spans="1:23" s="56" customFormat="1" ht="42">
+      <c r="A7" s="97"/>
+      <c r="B7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+    </row>
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="42">
+      <c r="A8" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="99"/>
+      <c r="B10" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="99"/>
+      <c r="B11" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+    </row>
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="14" customHeight="1">
+      <c r="A12" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:23" s="17" customFormat="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="1:23" s="17" customFormat="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="1:23" s="17" customFormat="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="28">
+      <c r="A16" s="94"/>
+      <c r="B16" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="99"/>
+      <c r="B18" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="99"/>
+      <c r="B19" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="99"/>
+      <c r="B20" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="99"/>
+      <c r="B21" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+    </row>
+    <row r="22" spans="1:23" s="17" customFormat="1" ht="14" customHeight="1">
+      <c r="A22" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" spans="1:23" s="17" customFormat="1" ht="133" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+    </row>
+    <row r="24" spans="1:23" s="17" customFormat="1" ht="63" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="94"/>
+      <c r="D24" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="110"/>
+      <c r="B26" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="17" customFormat="1" ht="42">
+      <c r="A27" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+    </row>
+    <row r="28" spans="1:23" s="31" customFormat="1" ht="42">
+      <c r="A28" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+    </row>
+    <row r="29" spans="1:23" s="17" customFormat="1">
+      <c r="A29" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+    </row>
+    <row r="30" spans="1:23" s="17" customFormat="1">
+      <c r="A30" s="93"/>
+      <c r="B30" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+    </row>
+    <row r="31" spans="1:23" s="17" customFormat="1">
+      <c r="A31" s="93"/>
+      <c r="B31" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+    </row>
+    <row r="32" spans="1:23" s="17" customFormat="1">
+      <c r="A32" s="93"/>
+      <c r="B32" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+    </row>
+    <row r="33" spans="1:23" s="17" customFormat="1">
+      <c r="A33" s="93"/>
+      <c r="B33" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+    </row>
+    <row r="34" spans="1:23" s="31" customFormat="1">
+      <c r="A34" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" s="31" customFormat="1">
+      <c r="A35" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="104"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+    </row>
+    <row r="36" spans="1:23" s="31" customFormat="1">
+      <c r="A36" s="104"/>
+      <c r="B36" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+    </row>
+    <row r="37" spans="1:23" s="31" customFormat="1">
+      <c r="A37" s="104"/>
+      <c r="B37" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+    </row>
+    <row r="38" spans="1:23" s="31" customFormat="1">
+      <c r="A38" s="104"/>
+      <c r="B38" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+    </row>
+    <row r="39" spans="1:23" s="31" customFormat="1">
+      <c r="A39" s="104"/>
+      <c r="B39" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+    </row>
+    <row r="40" spans="1:23" s="31" customFormat="1">
+      <c r="A40" s="104"/>
+      <c r="B40" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+    </row>
+    <row r="41" spans="1:23" s="31" customFormat="1">
+      <c r="A41" s="104"/>
+      <c r="B41" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="1:23" s="31" customFormat="1">
+      <c r="A42" s="104"/>
+      <c r="B42" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+    </row>
+    <row r="43" spans="1:23" s="31" customFormat="1">
+      <c r="A43" s="104"/>
+      <c r="B43" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+    </row>
+    <row r="44" spans="1:23" s="31" customFormat="1">
+      <c r="A44" s="104"/>
+      <c r="B44" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+    </row>
+    <row r="45" spans="1:23" s="31" customFormat="1">
+      <c r="A45" s="104"/>
+      <c r="B45" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+    </row>
+    <row r="46" spans="1:23" s="31" customFormat="1">
+      <c r="A46" s="104"/>
+      <c r="B46" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+    </row>
+    <row r="47" spans="1:23" s="31" customFormat="1">
+      <c r="A47" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+    </row>
+    <row r="48" spans="1:23" s="31" customFormat="1">
+      <c r="A48" s="104"/>
+      <c r="B48" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="108"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+    </row>
+    <row r="49" spans="1:23" s="31" customFormat="1">
+      <c r="A49" s="104"/>
+      <c r="B49" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="108"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+    </row>
+    <row r="50" spans="1:23" s="31" customFormat="1" ht="3" customHeight="1">
+      <c r="A50" s="104"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+    </row>
+    <row r="51" spans="1:23" s="31" customFormat="1" ht="14" hidden="1" customHeight="1">
+      <c r="A51" s="104"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+    </row>
+    <row r="52" spans="1:23" s="31" customFormat="1" ht="32" hidden="1" customHeight="1">
+      <c r="A52" s="104"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+    </row>
+    <row r="53" spans="1:23" s="56" customFormat="1" ht="12" hidden="1" customHeight="1">
+      <c r="B53" s="109"/>
+    </row>
+    <row r="54" spans="1:23" s="17" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="17" customFormat="1">
+      <c r="A55" s="88"/>
+      <c r="B55" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="88"/>
+      <c r="D55" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="17" customFormat="1">
+      <c r="A56" s="88"/>
+      <c r="B56" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="88"/>
+      <c r="D56" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="89"/>
+      <c r="B58" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="90"/>
+      <c r="D58" s="91"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="89"/>
+      <c r="B59" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="90"/>
+      <c r="D59" s="91"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="89"/>
+      <c r="B60" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="91"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" s="89"/>
+      <c r="B61" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="91"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" s="89"/>
+      <c r="B62" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="90"/>
+      <c r="D62" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="D34:D52"/>
+    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="Winner of the 2019 Youth Energy Policy Design Competition "/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
